--- a/src/note.xlsx
+++ b/src/note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="11" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="829">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3140,10 +3140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择器分组、继承，类选择器，ID选择器，派生选择器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>多重样式，属性值从更具体的样式表中被继承过来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3207,13 +3203,152 @@
   </si>
   <si>
     <t>web.xml设置默认页面为index.html，AccessController.java拦截，经过注解，转到welcome.jsp，提交后进入send action，被拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器分组、继承，类选择器，ID选择器（只能出现一次），派生选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freemarker快速入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计者专注于表示——创建HTML文件、图片、Web页面的其它可
+视化方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员创建系统，生成设计页面要显示的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTML（或其它要输出的文本）中加入一些特定指令，FreeMarker会在输出页面给最终用户时，用适当的数据替代这些代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML中加入了一些由${…}包围的特定代码，这些特定代码是FreeMarker的指令，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含FreeMarker的指令的文件就称为模板（Template）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}中的数据来自于数据模型（data model）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型由程序员编程来创建，向模板提供变化的信息，这些信息来自于数据库、文件，甚至于在程序中直接生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型的数据模型是树型结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeMarker模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  类似于目录的变量称为hashes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  类似于文件的变量称为scalars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  另外一种变量是sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ${…}：称为interpolations，FreeMarker会在输出时用实际值进行替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  FTL标记（FreeMarker模板语言标记）：类似于HTML标记，为了与HTML标记区分，用#开始（有些以@开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  注释：包含在&lt;#--和--&gt;（而不是&lt;!--和--&gt;）之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  集合可以看作只能由&lt;#list …&gt;指令使用的受限sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  方法：通过传递的参数进行计算，以新对象返回结果（程序员已经将方法变量放到数据模型中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户自定义FTL标记：宏和变换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTL标记不能位于另一个FTL标记内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两种类型的指令：预定义指令和用户定义指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户定义指令要使用@替换#，如&lt;@mydirective&gt;...&lt;/@mydirective&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当请求一个Login表单时，那么这就是一次请求，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在请求/login.htm时的请求是get请求，那么Spring MVC会认为这是进入且第一次页面请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果已经显示此页面，然后提交form表单，那么这是一次post请求,那么Spring MVC会认为这不是第一次页面请求，则不会在重新返回显示页面的时候再执行onBindOnNewForm()函数了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summercool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRING 实战（第3版）</t>
+  </si>
+  <si>
+    <t>构造器注入，没有自行创建任务，而是在构造时把任务（接口类型）作为构造器参数传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOP，使用各种功能层去包裹核心业务层，将安全、事务和日志与核心业务分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml里声明切面，定义pointcut，前置通知，后置通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将bean加载到bean工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ClassPathXmlApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  FileSystemXmlApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  XmlWebApplicationContext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -3891,7 +4026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3923,10 +4058,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3958,7 +4092,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4134,7 +4267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4196,7 +4329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4412,7 +4545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4519,7 +4652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4731,7 +4864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,7 +4983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -5276,7 +5409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5502,11 +5635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5783,10 +5916,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -6043,7 +6176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6104,7 +6237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6201,7 +6334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6271,11 +6404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6427,589 +6560,629 @@
         <v>611</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>628</v>
+      <c r="A38" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>612</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>613</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>614</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>624</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>625</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>743</v>
+      <c r="A51" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>731</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>745</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>744</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>732</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>740</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>741</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>746</v>
+        <v>627</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>747</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60">
-        <v>7</v>
+      <c r="A60" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="7" t="s">
-        <v>634</v>
+      <c r="A62" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>635</v>
+        <v>742</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>636</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>637</v>
+        <v>731</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>638</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>640</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>641</v>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>696</v>
+        <v>747</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>698</v>
+      <c r="A73">
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>711</v>
+      <c r="A75" s="7" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>699</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>700</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>701</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>702</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>703</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>704</v>
+        <v>640</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>723</v>
+        <v>641</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>726</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="7" t="s">
-        <v>643</v>
+      <c r="A101" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114">
-        <v>25</v>
+      <c r="A114" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>667</v>
+      <c r="A127">
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130">
-        <v>334</v>
+      <c r="A130" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>686</v>
+      <c r="A143">
+        <v>334</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>687</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>706</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>694</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="1" t="s">
-        <v>779</v>
+      <c r="A154" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>782</v>
+        <v>684</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>780</v>
+        <v>685</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>781</v>
+        <v>686</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>783</v>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="1" t="s">
-        <v>784</v>
+      <c r="A161" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>785</v>
+        <v>690</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>788</v>
+        <v>691</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>789</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>790</v>
+        <v>694</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>791</v>
+      <c r="A167" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>794</v>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -7021,11 +7194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7166,12 +7339,12 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7179,15 +7352,150 @@
         <v>11</v>
       </c>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>819</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7248,7 +7556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7304,7 +7612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7429,7 +7737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7455,7 +7763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7481,7 +7789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -8517,7 +8825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8532,7 +8840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8558,7 +8866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8614,7 +8922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
